--- a/docs/traceability matrix.xlsx
+++ b/docs/traceability matrix.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ICT\block3\ProP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ICT\block4\ProP-July-Morning\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="71">
   <si>
     <t>Requirement</t>
   </si>
@@ -41,36 +41,9 @@
     <t>C# app</t>
   </si>
   <si>
-    <t>Loan devices</t>
-  </si>
-  <si>
-    <t>Pay at event</t>
-  </si>
-  <si>
-    <t>Covert info from PayPal</t>
-  </si>
-  <si>
-    <t>BuyTicket.html</t>
-  </si>
-  <si>
     <t>Buy ticket</t>
   </si>
   <si>
-    <t>app at entrance of event</t>
-  </si>
-  <si>
-    <t>app at loaning stand</t>
-  </si>
-  <si>
-    <t>app at exit of event</t>
-  </si>
-  <si>
-    <t>app at shops</t>
-  </si>
-  <si>
-    <t>PayPal text-file app</t>
-  </si>
-  <si>
     <t>visitor</t>
   </si>
   <si>
@@ -86,9 +59,6 @@
     <t>Generate sales receipt</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Current state of a visitor</t>
   </si>
   <si>
@@ -104,15 +74,9 @@
     <t>Location of event</t>
   </si>
   <si>
-    <t>General information</t>
-  </si>
-  <si>
     <t>Connection to database</t>
   </si>
   <si>
-    <t>Payment with PayPal</t>
-  </si>
-  <si>
     <t>BuyTicket.php</t>
   </si>
   <si>
@@ -125,21 +89,9 @@
     <t>Location.php</t>
   </si>
   <si>
-    <t>About/Gallery</t>
-  </si>
-  <si>
-    <t>BookCamping</t>
-  </si>
-  <si>
-    <t>php</t>
-  </si>
-  <si>
     <t>APPLICATIONS:</t>
   </si>
   <si>
-    <t>Check ID at entrance</t>
-  </si>
-  <si>
     <t>DATABASE:</t>
   </si>
   <si>
@@ -152,9 +104,6 @@
     <t>Number of people who left</t>
   </si>
   <si>
-    <t>Place tweeds</t>
-  </si>
-  <si>
     <t>Money earned in total</t>
   </si>
   <si>
@@ -170,43 +119,124 @@
     <t>Store information about selling products</t>
   </si>
   <si>
-    <t>Camping</t>
-  </si>
-  <si>
     <t>Rent Equipment</t>
   </si>
   <si>
-    <t>Check if camping spot is reserved</t>
-  </si>
-  <si>
     <t>Check if device is returned at a visitor's leaving</t>
   </si>
   <si>
     <t>Check if there is money in event account at exit</t>
   </si>
   <si>
-    <t>app for generating sales receipt</t>
-  </si>
-  <si>
-    <t>camping</t>
-  </si>
-  <si>
-    <t>app at entrance of camping</t>
-  </si>
-  <si>
-    <t>Transactions</t>
-  </si>
-  <si>
-    <t>Visitor, Purchase</t>
-  </si>
-  <si>
-    <t>Purchase</t>
-  </si>
-  <si>
-    <t>Visitor</t>
-  </si>
-  <si>
-    <t>PurchaseHasProduct</t>
+    <t>Gallery</t>
+  </si>
+  <si>
+    <t>Gallery.php</t>
+  </si>
+  <si>
+    <t>Profile.html</t>
+  </si>
+  <si>
+    <t>InsertPost.php UpdatePost.php Profile.php</t>
+  </si>
+  <si>
+    <t>booking / visitor</t>
+  </si>
+  <si>
+    <t>transactions</t>
+  </si>
+  <si>
+    <t>php/Connection.php</t>
+  </si>
+  <si>
+    <t>php/formvalidation.php</t>
+  </si>
+  <si>
+    <t>Place tweets &amp; Facebook comments</t>
+  </si>
+  <si>
+    <t>rent_equipment</t>
+  </si>
+  <si>
+    <t>App at Loaning stand</t>
+  </si>
+  <si>
+    <t>Assign RFID to visitor</t>
+  </si>
+  <si>
+    <t>rent_equipment equipment</t>
+  </si>
+  <si>
+    <t>Buy food and drinks</t>
+  </si>
+  <si>
+    <t>visitor /purchase/ purchase_has_product</t>
+  </si>
+  <si>
+    <t>App at entrance of event</t>
+  </si>
+  <si>
+    <t>App for Buying $ Drinks</t>
+  </si>
+  <si>
+    <t>purchase purchase_has_product</t>
+  </si>
+  <si>
+    <t>Covert info from PayPal log file</t>
+  </si>
+  <si>
+    <t>PayPal-log-File-Coverter</t>
+  </si>
+  <si>
+    <t>Check if visitor has reserved camping spot</t>
+  </si>
+  <si>
+    <t>Profile.php</t>
+  </si>
+  <si>
+    <t>booking</t>
+  </si>
+  <si>
+    <t>App at entrance of camping</t>
+  </si>
+  <si>
+    <t>App at exit of event</t>
+  </si>
+  <si>
+    <t>Return Equipment</t>
+  </si>
+  <si>
+    <t>Track visitor status</t>
+  </si>
+  <si>
+    <t>App for tracking system status</t>
+  </si>
+  <si>
+    <t>Track camping status</t>
+  </si>
+  <si>
+    <t>Track event status</t>
+  </si>
+  <si>
+    <t>visitor/booking</t>
+  </si>
+  <si>
+    <t>Track shop status</t>
+  </si>
+  <si>
+    <t>purchase/ product/ purchase_has_product</t>
+  </si>
+  <si>
+    <t>Facebook &amp; Twitter for Developers</t>
+  </si>
+  <si>
+    <t>purchase</t>
+  </si>
+  <si>
+    <t>purchase_has_product</t>
+  </si>
+  <si>
+    <t>rent_rquipment</t>
   </si>
 </sst>
 </file>
@@ -406,7 +436,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -430,7 +460,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -450,7 +479,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -473,6 +501,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -567,6 +607,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -602,6 +659,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -756,593 +830,605 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.140625" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
     <col min="5" max="5" width="32" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>22</v>
+      <c r="A2" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="14"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>9</v>
+      <c r="A3" s="14" t="s">
+        <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="B18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="B19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="18"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="19"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>20</v>
+      <c r="E21" s="15" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
+      <c r="A22" s="14" t="s">
+        <v>63</v>
+      </c>
       <c r="B22" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>20</v>
+        <v>64</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
-        <v>38</v>
+      <c r="A24" s="18" t="s">
+        <v>22</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
-      <c r="E24" s="21"/>
+      <c r="E24" s="19"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
-        <v>21</v>
+      <c r="A25" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E33" s="22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E35" s="22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="E36" s="25" t="s">
-        <v>30</v>
+      <c r="B36" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
